--- a/biology/Médecine/Frederic_Gibbs/Frederic_Gibbs.xlsx
+++ b/biology/Médecine/Frederic_Gibbs/Frederic_Gibbs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederic Andrews Gibbs (1903–1992) est un neurologue américain qui est un pionnier dans l'utilisation de l'Électroencéphalographie (EEG) pour le diagnostic et le traitement de l'épilepsie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gibbs est diplômé de Yale et Johns-Hopkins en 1929. Il se voit offrir une bourse de recherche en neuropathologie par Stanley Cobb (en), de la Harvard Medical School. Il étudie l'épilepsie dans le même laboratoire que William Gordon Lennox et Erna Leonhardt.
 Erna Leonhardt est la collègue technique de Lennox et a immigré d'Allemagne. Elle épouse Gibbs en 1930 et ils forment une équipe de recherche qui dure toute une vie, publiant des articles ensemble au cours des cinquante années suivantes.
